--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H2">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N2">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q2">
-        <v>0.7420726236740001</v>
+        <v>3.250538346906666</v>
       </c>
       <c r="R2">
-        <v>6.678653613066</v>
+        <v>29.25484512216</v>
       </c>
       <c r="S2">
-        <v>0.004914397282192655</v>
+        <v>0.01779754298011658</v>
       </c>
       <c r="T2">
-        <v>0.004914397282192656</v>
+        <v>0.01779754298011658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H3">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I3">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J3">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>37.180959</v>
       </c>
       <c r="O3">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P3">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q3">
-        <v>0.514249843929</v>
+        <v>2.186616330007667</v>
       </c>
       <c r="R3">
-        <v>4.628248595361</v>
+        <v>19.679546970069</v>
       </c>
       <c r="S3">
-        <v>0.003405634374248134</v>
+        <v>0.01197229318994822</v>
       </c>
       <c r="T3">
-        <v>0.003405634374248136</v>
+        <v>0.01197229318994822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H4">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I4">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J4">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N4">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q4">
-        <v>0.182453780305</v>
+        <v>1.899041532216889</v>
       </c>
       <c r="R4">
-        <v>1.642084022745</v>
+        <v>17.091373789952</v>
       </c>
       <c r="S4">
-        <v>0.001208305404958013</v>
+        <v>0.01039774636801938</v>
       </c>
       <c r="T4">
-        <v>0.001208305404958013</v>
+        <v>0.01039774636801938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H5">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I5">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J5">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N5">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q5">
-        <v>0.2341465204099999</v>
+        <v>0.9915910495726665</v>
       </c>
       <c r="R5">
-        <v>2.10731868369</v>
+        <v>8.924319446153998</v>
       </c>
       <c r="S5">
-        <v>0.001550642062283219</v>
+        <v>0.005429218929308379</v>
       </c>
       <c r="T5">
-        <v>0.00155064206228322</v>
+        <v>0.005429218929308379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.89553</v>
       </c>
       <c r="I6">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J6">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N6">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O6">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P6">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q6">
-        <v>64.95292003806891</v>
+        <v>66.91279102586667</v>
       </c>
       <c r="R6">
-        <v>584.5762803426201</v>
+        <v>602.2151192328</v>
       </c>
       <c r="S6">
-        <v>0.4301525801143048</v>
+        <v>0.3663649362376266</v>
       </c>
       <c r="T6">
-        <v>0.4301525801143049</v>
+        <v>0.3663649362376266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.89553</v>
       </c>
       <c r="I7">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J7">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>37.180959</v>
       </c>
       <c r="O7">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P7">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q7">
         <v>45.01180602369667</v>
@@ -883,10 +883,10 @@
         <v>405.1062542132701</v>
       </c>
       <c r="S7">
-        <v>0.2980919793190159</v>
+        <v>0.246451346461354</v>
       </c>
       <c r="T7">
-        <v>0.298091979319016</v>
+        <v>0.246451346461354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>10.89553</v>
       </c>
       <c r="I8">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J8">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N8">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O8">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P8">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q8">
-        <v>15.97000808912778</v>
+        <v>39.09203818979556</v>
       </c>
       <c r="R8">
-        <v>143.73007280215</v>
+        <v>351.82834370816</v>
       </c>
       <c r="S8">
-        <v>0.1057618376503842</v>
+        <v>0.2140390777193382</v>
       </c>
       <c r="T8">
-        <v>0.1057618376503843</v>
+        <v>0.2140390777193382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>10.89553</v>
       </c>
       <c r="I9">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J9">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N9">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O9">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P9">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q9">
-        <v>20.49462509758889</v>
+        <v>20.41204182264667</v>
       </c>
       <c r="R9">
-        <v>184.4516258783</v>
+        <v>183.70837640382</v>
       </c>
       <c r="S9">
-        <v>0.1357262438553386</v>
+        <v>0.1117612385641308</v>
       </c>
       <c r="T9">
-        <v>0.1357262438553386</v>
+        <v>0.1117612385641308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H10">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I10">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J10">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N10">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O10">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P10">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q10">
-        <v>1.285242194713555</v>
+        <v>1.12540672928</v>
       </c>
       <c r="R10">
-        <v>11.567179752422</v>
+        <v>10.12866056352</v>
       </c>
       <c r="S10">
-        <v>0.008511553380568297</v>
+        <v>0.006161894583872242</v>
       </c>
       <c r="T10">
-        <v>0.008511553380568299</v>
+        <v>0.006161894583872244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H11">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I11">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J11">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>37.180959</v>
       </c>
       <c r="O11">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P11">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q11">
-        <v>0.8906616104096665</v>
+        <v>0.757053899852</v>
       </c>
       <c r="R11">
-        <v>8.015954493687</v>
+        <v>6.813485098668</v>
       </c>
       <c r="S11">
-        <v>0.005898432118247077</v>
+        <v>0.004145067026728947</v>
       </c>
       <c r="T11">
-        <v>0.00589843211824708</v>
+        <v>0.004145067026728947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H12">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I12">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J12">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N12">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O12">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P12">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q12">
-        <v>0.3160031640461111</v>
+        <v>0.6574892806826667</v>
       </c>
       <c r="R12">
-        <v>2.844028476415</v>
+        <v>5.917403526144</v>
       </c>
       <c r="S12">
-        <v>0.002092740037846647</v>
+        <v>0.003599924838004592</v>
       </c>
       <c r="T12">
-        <v>0.002092740037846648</v>
+        <v>0.003599924838004591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H13">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I13">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J13">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N13">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O13">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P13">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q13">
-        <v>0.4055330680255554</v>
+        <v>0.343310283032</v>
       </c>
       <c r="R13">
-        <v>3.649797612229999</v>
+        <v>3.089792547287999</v>
       </c>
       <c r="S13">
-        <v>0.002685654400612361</v>
+        <v>0.001879713101552113</v>
       </c>
       <c r="T13">
-        <v>0.002685654400612362</v>
+        <v>0.001879713101552113</v>
       </c>
     </row>
   </sheetData>
